--- a/evaluation_data/PhilJay/MPAndroidChart/validation_count.xlsx
+++ b/evaluation_data/PhilJay/MPAndroidChart/validation_count.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m-iriyam/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m-iriyam/APIMiner/evaluation_data/PhilJay/MPAndroidChart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72150649-37B9-9F46-929B-B7E2B19000E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B804A29-D27B-7B40-8F41-95F1CB4F9559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="count" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Except Add,Remove</t>
+    <t>Except for Add,Remove</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
